--- a/data/UI自动化用测试用例_错误用例.xlsx
+++ b/data/UI自动化用测试用例_错误用例.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$32</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>用例编号</t>
   </si>
@@ -45,7 +45,7 @@
     <t>输入6位字母+数字密码更改成功</t>
   </si>
   <si>
-    <t>忘记密码</t>
+    <t>忘记密码1</t>
   </si>
   <si>
     <t>页面在验证码通过后修改页面</t>
@@ -59,6 +59,24 @@
   </si>
   <si>
     <t>Login</t>
+  </si>
+  <si>
+    <t>更改密码成功后回退重新输入验证码</t>
+  </si>
+  <si>
+    <t>忘记密码</t>
+  </si>
+  <si>
+    <t>更改密码成功</t>
+  </si>
+  <si>
+    <t>css selector=#app &gt; div &gt; div.login-form-wrap &gt; div.login-form.margin-bottom &gt; form &gt; div:nth-child(1) &gt; div &gt; div &gt; span &gt; div &gt; div:nth-child(2) &gt; a</t>
+  </si>
+  <si>
+    <t>Send verification code to email</t>
+  </si>
+  <si>
+    <t>输入修改过的密码更改失败</t>
   </si>
 </sst>
 </file>
@@ -66,10 +84,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -111,44 +129,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,9 +147,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -170,17 +161,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,7 +223,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,9 +259,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,37 +268,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,13 +282,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,163 +432,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,6 +473,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -475,9 +511,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,21 +565,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -520,41 +573,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -563,10 +581,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -575,155 +593,149 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -736,25 +748,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1105,250 +1102,242 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="29" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="37.75" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="25" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="16.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="37.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="41.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="33" customHeight="1" spans="1:7">
-      <c r="A2" s="6"/>
-      <c r="B2" s="9" t="s">
+    <row r="2" ht="54" spans="2:7">
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="2:7">
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" ht="14.25" spans="2:7">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+    <row r="3" ht="54" spans="2:7">
+      <c r="B3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" ht="54" spans="2:7">
+      <c r="B4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" ht="14.25" spans="2:7">
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" ht="14.25" spans="2:7">
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" ht="14.25" spans="2:7">
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" ht="14.25" spans="2:7">
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="G8" s="13"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" ht="14.25" spans="2:4">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" ht="14.25" spans="2:8">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" ht="14.25" spans="2:6">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" ht="14.25" spans="2:4">
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" ht="14.25" spans="2:8">
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" ht="14.25" spans="2:6">
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" ht="14.25" spans="2:4">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" ht="14.25" spans="2:7">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" ht="14.25" spans="2:4">
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" ht="14.25" spans="2:4">
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-    </row>
-    <row r="14" ht="14.25" spans="2:7">
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="G14" s="14"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" ht="14.25" spans="2:4">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" ht="14.25" spans="2:4">
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-    </row>
-    <row r="16" ht="14.25" spans="2:4">
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A16" s="3"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
     </row>
     <row r="17" ht="14.25" spans="2:4">
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-    </row>
-    <row r="18" ht="14.25" spans="2:4">
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-    </row>
-    <row r="19" s="3" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-    </row>
-    <row r="20" ht="14.25" spans="2:4">
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" ht="14.25" spans="3:4">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" ht="14.25" spans="3:4">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" ht="14.25" spans="3:4">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" ht="14.25" spans="3:4">
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" ht="14.25" spans="3:4">
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" ht="14.25" spans="3:4">
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
     </row>
     <row r="24" ht="14.25" spans="3:4">
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" ht="14.25" spans="3:4">
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-    </row>
-    <row r="26" ht="14.25" spans="3:4">
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-    </row>
-    <row r="27" ht="14.25" spans="3:4">
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A26" s="3"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A27" s="3"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
     </row>
     <row r="28" ht="14.25" spans="3:4">
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-    </row>
-    <row r="29" s="3" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A29" s="15"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-    </row>
-    <row r="30" s="3" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A30" s="15"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-    </row>
-    <row r="31" ht="14.25" spans="3:4">
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-    </row>
-    <row r="32" s="3" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A32" s="15"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-    </row>
-    <row r="33" ht="14.25" spans="3:3">
-      <c r="C33" s="12"/>
-    </row>
-    <row r="34" s="3" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A34" s="15"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="16"/>
-    </row>
-    <row r="35" s="3" customFormat="1" spans="1:7">
-      <c r="A35" s="15"/>
-      <c r="B35" s="3"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" s="2" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A29" s="3"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" ht="14.25" spans="3:3">
+      <c r="C30" s="7"/>
+    </row>
+    <row r="31" s="2" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A31" s="3"/>
+      <c r="C31" s="7"/>
+    </row>
+    <row r="32" s="2" customFormat="1" spans="1:1">
+      <c r="A32" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K35">
+  <autoFilter ref="A1:K32">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/UI自动化用测试用例_错误用例.xlsx
+++ b/data/UI自动化用测试用例_错误用例.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>用例编号</t>
   </si>
@@ -45,7 +45,7 @@
     <t>输入6位字母+数字密码更改成功</t>
   </si>
   <si>
-    <t>忘记密码1</t>
+    <t>忘记密码</t>
   </si>
   <si>
     <t>页面在验证码通过后修改页面</t>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>更改密码成功后回退重新输入验证码</t>
-  </si>
-  <si>
-    <t>忘记密码</t>
   </si>
   <si>
     <t>更改密码成功</t>
@@ -1105,7 +1102,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1168,24 +1165,24 @@
         <v>13</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" ht="54" spans="2:7">
       <c r="B4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>8</v>

--- a/data/UI自动化用测试用例_错误用例.xlsx
+++ b/data/UI自动化用测试用例_错误用例.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>用例编号</t>
   </si>
@@ -42,38 +42,13 @@
     <t>预期结果元素</t>
   </si>
   <si>
-    <t>输入6位字母+数字密码更改成功</t>
+    <t>点击Total price可以根据订单金额进行排序</t>
   </si>
   <si>
-    <t>忘记密码</t>
+    <t>订单管理</t>
   </si>
   <si>
-    <t>页面在验证码通过后修改页面</t>
-  </si>
-  <si>
-    <t>useraccount=a979172251@163.com
-newpassword=a123456</t>
-  </si>
-  <si>
-    <t>css selector=#app &gt; div &gt; div.global-header &gt; div &gt; div.menu-content &gt; div.menu-right.flex &gt; div:nth-child(1) &gt; span</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>更改密码成功后回退重新输入验证码</t>
-  </si>
-  <si>
-    <t>更改密码成功</t>
-  </si>
-  <si>
-    <t>css selector=#app &gt; div &gt; div.login-form-wrap &gt; div.login-form.margin-bottom &gt; form &gt; div:nth-child(1) &gt; div &gt; div &gt; span &gt; div &gt; div:nth-child(2) &gt; a</t>
-  </si>
-  <si>
-    <t>Send verification code to email</t>
-  </si>
-  <si>
-    <t>输入修改过的密码更改失败</t>
+    <t>存在订单，登录状态，个人信息页面</t>
   </si>
 </sst>
 </file>
@@ -81,10 +56,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -126,6 +101,118 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -134,113 +221,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -249,22 +229,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,37 +254,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,31 +398,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,109 +410,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,7 +452,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,8 +460,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,10 +483,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -528,21 +501,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,9 +522,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,10 +553,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -590,137 +565,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -745,7 +720,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1102,7 +1083,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1140,195 +1121,157 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="54" spans="2:7">
+    <row r="2" ht="28.5" spans="2:4">
       <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" ht="54" spans="2:7">
-      <c r="B3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" ht="54" spans="2:7">
-      <c r="B4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" spans="2:7">
+    </row>
+    <row r="3" ht="14.25" spans="2:5">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" ht="14.25" spans="2:5">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" ht="14.25" spans="2:5">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" ht="14.25" spans="2:4">
-      <c r="B6" s="7"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" ht="14.25" spans="3:5">
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-    </row>
-    <row r="7" ht="14.25" spans="2:8">
-      <c r="B7" s="7"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" ht="14.25" spans="3:8">
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" ht="14.25" spans="2:6">
-      <c r="B8" s="7"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" ht="14.25" spans="3:5">
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" ht="14.25" spans="2:4">
-      <c r="B9" s="7"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" ht="14.25" spans="3:5">
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" ht="14.25" spans="2:4">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" ht="14.25" spans="2:7">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="G11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" ht="14.25" spans="2:4">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" ht="14.25" spans="2:4">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" ht="14.25" spans="2:4">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" ht="14.25" spans="2:4">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
     </row>
     <row r="16" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A16" s="3"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
     </row>
     <row r="17" ht="14.25" spans="2:4">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" ht="14.25" spans="3:4">
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
     </row>
     <row r="19" ht="14.25" spans="3:4">
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
     </row>
     <row r="20" ht="14.25" spans="3:4">
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
     </row>
     <row r="21" ht="14.25" spans="3:4">
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
     </row>
     <row r="22" ht="14.25" spans="3:4">
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
     </row>
     <row r="23" ht="14.25" spans="3:4">
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
     </row>
     <row r="24" ht="14.25" spans="3:4">
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
     </row>
     <row r="25" ht="14.25" spans="3:4">
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
     </row>
     <row r="26" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A26" s="3"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
     </row>
     <row r="27" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A27" s="3"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
     </row>
     <row r="28" ht="14.25" spans="3:4">
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A29" s="3"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" ht="14.25" spans="3:3">
-      <c r="C30" s="7"/>
+      <c r="C30" s="10"/>
     </row>
     <row r="31" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A31" s="3"/>
-      <c r="C31" s="7"/>
+      <c r="C31" s="10"/>
     </row>
     <row r="32" s="2" customFormat="1" spans="1:1">
       <c r="A32" s="3"/>

--- a/data/UI自动化用测试用例_错误用例.xlsx
+++ b/data/UI自动化用测试用例_错误用例.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$31</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>用例编号</t>
   </si>
@@ -42,13 +42,24 @@
     <t>预期结果元素</t>
   </si>
   <si>
-    <t>点击Total price可以根据订单金额进行排序</t>
+    <t>退货页面输入正确信息退货提交成功</t>
   </si>
   <si>
     <t>订单管理</t>
   </si>
   <si>
-    <t>存在订单，登录状态，个人信息页面</t>
+    <t>在退货单填写页面</t>
+  </si>
+  <si>
+    <t>reason=Model error
+text=123412412
+img=ture</t>
+  </si>
+  <si>
+    <t>xpath=/html/body/div[2]/span/div/div/div/span</t>
+  </si>
+  <si>
+    <t>please input your reason</t>
   </si>
 </sst>
 </file>
@@ -56,8 +67,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -102,6 +113,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -117,29 +143,67 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,13 +216,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -167,8 +224,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,37 +248,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -220,30 +255,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -254,187 +265,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,24 +456,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -477,15 +470,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,6 +489,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -516,17 +529,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,6 +547,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -553,149 +564,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -719,12 +730,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1080,10 +1085,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1093,7 +1098,7 @@
     <col min="3" max="3" width="16.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="17.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="37.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="41.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="46.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="25" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
@@ -1121,163 +1126,163 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="28.5" spans="2:4">
-      <c r="B2" s="7" t="s">
+    <row r="2" ht="40.5" spans="2:7">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" ht="14.25" spans="2:5">
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" ht="14.25" spans="2:5">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" ht="14.25" spans="2:5">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" ht="14.25" spans="3:5">
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" ht="14.25" spans="3:8">
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" ht="14.25" spans="3:5">
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" ht="14.25" spans="3:5">
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" ht="14.25" spans="2:4">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" ht="14.25" spans="2:7">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="G11" s="11"/>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="2:4">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" ht="14.25" spans="2:4">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" ht="14.25" spans="3:4">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" ht="14.25" spans="2:8">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" ht="14.25" spans="2:4">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" ht="14.25" spans="2:4">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" ht="14.25" spans="3:4">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" ht="14.25" spans="2:7">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" ht="14.25" spans="2:4">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" ht="14.25" spans="2:4">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
     </row>
     <row r="13" ht="14.25" spans="2:4">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
     </row>
     <row r="14" ht="14.25" spans="2:4">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" ht="14.25" spans="2:4">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A16" s="3"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" ht="14.25" spans="2:4">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A15" s="3"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" ht="14.25" spans="2:4">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" ht="14.25" spans="3:4">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" ht="14.25" spans="3:4">
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" ht="14.25" spans="3:4">
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" ht="14.25" spans="3:4">
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
     </row>
     <row r="21" ht="14.25" spans="3:4">
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
     </row>
     <row r="22" ht="14.25" spans="3:4">
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" ht="14.25" spans="3:4">
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
     </row>
     <row r="24" ht="14.25" spans="3:4">
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-    </row>
-    <row r="25" ht="14.25" spans="3:4">
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" s="2" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A25" s="3"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A26" s="3"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-    </row>
-    <row r="27" s="2" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A27" s="3"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-    </row>
-    <row r="28" ht="14.25" spans="3:4">
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-    </row>
-    <row r="29" s="2" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A29" s="3"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-    </row>
-    <row r="30" ht="14.25" spans="3:3">
-      <c r="C30" s="10"/>
-    </row>
-    <row r="31" s="2" customFormat="1" ht="14.25" spans="1:3">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" ht="14.25" spans="3:4">
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A28" s="3"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" ht="14.25" spans="3:3">
+      <c r="C29" s="8"/>
+    </row>
+    <row r="30" s="2" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A30" s="3"/>
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" s="2" customFormat="1" spans="1:1">
       <c r="A31" s="3"/>
-      <c r="C31" s="10"/>
-    </row>
-    <row r="32" s="2" customFormat="1" spans="1:1">
-      <c r="A32" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K32">
+  <autoFilter ref="A1:K31">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/UI自动化用测试用例_错误用例.xlsx
+++ b/data/UI自动化用测试用例_错误用例.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>用例编号</t>
   </si>
@@ -42,24 +42,19 @@
     <t>预期结果元素</t>
   </si>
   <si>
-    <t>退货页面输入正确信息退货提交成功</t>
+    <t>通过个人中心修改邮箱入口进入成功</t>
   </si>
   <si>
-    <t>订单管理</t>
+    <t>个人信息修改</t>
   </si>
   <si>
-    <t>在退货单填写页面</t>
+    <t>在个人中心页面</t>
   </si>
   <si>
-    <t>reason=Model error
-text=123412412
-img=ture</t>
+    <t>class name=title.text-tit-lg.margin-bottom-lg</t>
   </si>
   <si>
-    <t>xpath=/html/body/div[2]/span/div/div/div/span</t>
-  </si>
-  <si>
-    <t>please input your reason</t>
+    <t>Modify email</t>
   </si>
 </sst>
 </file>
@@ -67,10 +62,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -113,14 +108,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -128,14 +159,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,53 +167,49 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -203,30 +223,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,19 +237,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -265,37 +260,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,37 +410,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,97 +434,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,6 +451,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -470,6 +476,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,20 +521,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,22 +532,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,15 +551,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -564,10 +559,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,137 +571,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -726,9 +721,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1088,7 +1080,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1126,157 +1118,147 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="40.5" spans="2:7">
+    <row r="2" ht="27" spans="2:7">
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="2:4">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
     </row>
     <row r="4" ht="14.25" spans="2:4">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" ht="14.25" spans="3:4">
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" ht="14.25" spans="2:8">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="8"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" ht="14.25" spans="2:4">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" ht="14.25" spans="2:4">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" ht="14.25" spans="3:4">
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" ht="14.25" spans="2:7">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="G10" s="9"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" ht="14.25" spans="2:4">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" ht="14.25" spans="2:4">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" ht="14.25" spans="2:4">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" ht="14.25" spans="2:4">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A15" s="3"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
     </row>
     <row r="16" ht="14.25" spans="2:4">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
     </row>
     <row r="17" ht="14.25" spans="3:4">
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" ht="14.25" spans="3:4">
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" ht="14.25" spans="3:4">
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" ht="14.25" spans="3:4">
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" ht="14.25" spans="3:4">
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" ht="14.25" spans="3:4">
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" ht="14.25" spans="3:4">
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
     </row>
     <row r="24" ht="14.25" spans="3:4">
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A25" s="3"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
     </row>
     <row r="26" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A26" s="3"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
     </row>
     <row r="27" ht="14.25" spans="3:4">
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
     </row>
     <row r="28" s="2" customFormat="1" ht="14.25" spans="1:4">
       <c r="A28" s="3"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
     </row>
     <row r="29" ht="14.25" spans="3:3">
-      <c r="C29" s="8"/>
+      <c r="C29" s="7"/>
     </row>
     <row r="30" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A30" s="3"/>
-      <c r="C30" s="8"/>
+      <c r="C30" s="7"/>
     </row>
     <row r="31" s="2" customFormat="1" spans="1:1">
       <c r="A31" s="3"/>

--- a/data/UI自动化用测试用例_错误用例.xlsx
+++ b/data/UI自动化用测试用例_错误用例.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>用例编号</t>
   </si>
@@ -40,21 +40,6 @@
   </si>
   <si>
     <t>预期结果元素</t>
-  </si>
-  <si>
-    <t>通过个人中心修改邮箱入口进入成功</t>
-  </si>
-  <si>
-    <t>个人信息修改</t>
-  </si>
-  <si>
-    <t>在个人中心页面</t>
-  </si>
-  <si>
-    <t>class name=title.text-tit-lg.margin-bottom-lg</t>
-  </si>
-  <si>
-    <t>Modify email</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1065,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1118,23 +1103,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="27" spans="2:7">
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
+    <row r="2" spans="2:7">
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
     </row>
     <row r="4" ht="14.25" spans="2:4">
       <c r="B4" s="7"/>

--- a/data/UI自动化用测试用例_错误用例.xlsx
+++ b/data/UI自动化用测试用例_错误用例.xlsx
@@ -48,11 +48,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,9 +87,43 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9.8"/>
-      <name val="Courier New"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -107,13 +141,50 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -123,52 +194,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,53 +210,22 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,175 +240,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,10 +436,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -465,11 +458,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,6 +495,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,32 +526,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,10 +539,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -556,137 +551,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -709,9 +704,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1065,7 +1057,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G2"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1103,20 +1095,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:7">
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-    </row>
-    <row r="4" ht="14.25" spans="2:4">
+    <row r="3" ht="14.25" spans="2:7">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" ht="14.25" spans="2:7">
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-    </row>
-    <row r="5" ht="14.25" spans="3:4">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" ht="14.25" spans="2:4">
+      <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
     </row>
@@ -1124,6 +1120,9 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
       <c r="H6" s="7"/>
     </row>
     <row r="7" ht="14.25" spans="2:4">
@@ -1136,15 +1135,15 @@
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" ht="14.25" spans="3:4">
+    <row r="9" ht="14.25" spans="2:4">
+      <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" ht="14.25" spans="2:7">
+    <row r="10" ht="14.25" spans="2:4">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="G10" s="8"/>
     </row>
     <row r="11" ht="14.25" spans="2:4">
       <c r="B11" s="7"/>
@@ -1177,7 +1176,8 @@
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" ht="14.25" spans="3:4">
+    <row r="17" ht="14.25" spans="2:4">
+      <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
     </row>

--- a/data/UI自动化用测试用例_错误用例.xlsx
+++ b/data/UI自动化用测试用例_错误用例.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$29</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="45">
   <si>
     <t>用例编号</t>
   </si>
@@ -40,6 +40,131 @@
   </si>
   <si>
     <t>预期结果元素</t>
+  </si>
+  <si>
+    <t>输入正确内容修改密码成功</t>
+  </si>
+  <si>
+    <t>忘记密码</t>
+  </si>
+  <si>
+    <t>页面在忘记密码页面</t>
+  </si>
+  <si>
+    <t>useraccount=a979172251@163.com
+newpassword=</t>
+  </si>
+  <si>
+    <t>css selector=#app &gt; div &gt; div.global-header &gt; div &gt; div.menu-content &gt; div.menu-right.flex &gt; div:nth-child(1) &gt; span</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>不输入邮箱修下一步置灰</t>
+  </si>
+  <si>
+    <t>useraccount=
+newpassword=</t>
+  </si>
+  <si>
+    <t>class name=atn-btn-orange.ant-btn.ant-btn-lg.ant-btn-block</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>不输入验证码下一步置灰</t>
+  </si>
+  <si>
+    <t>不输入邮箱号点击发送验证码失败</t>
+  </si>
+  <si>
+    <t>css selector=body &gt; div.ant-message &gt; span &gt; div &gt; div &gt; div &gt; span</t>
+  </si>
+  <si>
+    <t>No such user information！</t>
+  </si>
+  <si>
+    <t>输入错误邮箱发送验证码失败</t>
+  </si>
+  <si>
+    <t>useraccount=sdasdsa
+newpassword=</t>
+  </si>
+  <si>
+    <t>输入过期验证码点击下一步失败</t>
+  </si>
+  <si>
+    <t>xpath=/html/body/div[2]/span/div/div/div/span</t>
+  </si>
+  <si>
+    <t>Verification code error！</t>
+  </si>
+  <si>
+    <t>输入空密码修改失败</t>
+  </si>
+  <si>
+    <t>页面在验证码通过后修改页面</t>
+  </si>
+  <si>
+    <t xml:space="preserve">useraccount=a979172251@163.com
+newpassword=  </t>
+  </si>
+  <si>
+    <t>css selector=#app &gt; div &gt; div.login-form-wrap &gt; div.login-form.margin-bottom &gt; form &gt; div:nth-child(3) &gt; div &gt; div &gt; span &gt; span:nth-child(2)</t>
+  </si>
+  <si>
+    <t>Please set the password to a combination of 6 to 16 digits and letters</t>
+  </si>
+  <si>
+    <t>输入7位纯数字修改成功</t>
+  </si>
+  <si>
+    <t>useraccount=a979172251@163.com
+newpassword=1234567</t>
+  </si>
+  <si>
+    <t>输入7位英文小写密码修改成功</t>
+  </si>
+  <si>
+    <t>useraccount=a979172251@163.com
+newpassword=aaaaaaa</t>
+  </si>
+  <si>
+    <t>输入7位英文大写密码修改成功</t>
+  </si>
+  <si>
+    <t>useraccount=a979172251@163.com
+newpassword=AAAAAAA</t>
+  </si>
+  <si>
+    <t>输入7位特殊字符密码修改成功</t>
+  </si>
+  <si>
+    <t>useraccount=a979172251@163.com
+newpassword=!!!!!!!</t>
+  </si>
+  <si>
+    <t>输入6位字母+数字密码更改成功</t>
+  </si>
+  <si>
+    <t>useraccount=a979172251@163.com
+newpassword=a123456</t>
+  </si>
+  <si>
+    <t>输入16位字母+数字更改成功</t>
+  </si>
+  <si>
+    <t>useraccount=a979172251@163.com
+newpassword=a123456789123456</t>
+  </si>
+  <si>
+    <t>输入5位字母+数字更改失败</t>
+  </si>
+  <si>
+    <t>useraccount=a979172251@163.com
+newpassword=a1234</t>
   </si>
 </sst>
 </file>
@@ -47,10 +172,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -88,10 +213,26 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -103,6 +244,103 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -112,120 +350,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,6 +371,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -264,13 +395,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,25 +449,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,19 +515,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,25 +533,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,61 +545,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,11 +559,59 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,54 +656,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -539,10 +664,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -551,133 +676,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1054,10 +1179,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1095,89 +1220,293 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="2:7">
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" ht="14.25" spans="2:7">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" ht="14.25" spans="2:4">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" ht="14.25" spans="2:8">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+    <row r="2" ht="40.5" spans="2:7">
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" ht="28.5" spans="2:7">
+      <c r="B3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" ht="28.5" spans="2:7">
+      <c r="B4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="28.5" spans="2:7">
+      <c r="B5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" ht="28.5" spans="2:8">
+      <c r="B6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" ht="14.25" spans="2:4">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" ht="14.25" spans="2:4">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" ht="14.25" spans="2:4">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" ht="14.25" spans="2:4">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" ht="14.25" spans="2:4">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" ht="14.25" spans="2:4">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" ht="14.25" spans="2:4">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" ht="14.25" spans="2:4">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="14.25" spans="1:4">
+    <row r="7" ht="28.5" spans="2:7">
+      <c r="B7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" ht="54" spans="2:7">
+      <c r="B8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" ht="40.5" spans="2:7">
+      <c r="B9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" ht="40.5" spans="2:7">
+      <c r="B10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" ht="40.5" spans="2:7">
+      <c r="B11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" ht="40.5" spans="2:7">
+      <c r="B12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" ht="40.5" spans="2:7">
+      <c r="B13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" ht="40.5" spans="2:7">
+      <c r="B14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="54" spans="1:7">
       <c r="A15" s="3"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" ht="14.25" spans="2:4">
-      <c r="B16" s="7"/>
+      <c r="B15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="3:4">
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" ht="14.25" spans="2:4">
-      <c r="B17" s="7"/>
+    <row r="17" ht="14.25" spans="3:4">
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
     </row>
@@ -1201,16 +1530,17 @@
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" ht="14.25" spans="3:4">
+    <row r="23" s="2" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A23" s="3"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" ht="14.25" spans="3:4">
+    <row r="24" s="2" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A24" s="3"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" s="2" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A25" s="3"/>
+    <row r="25" ht="14.25" spans="3:4">
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
     </row>
@@ -1219,27 +1549,18 @@
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
     </row>
-    <row r="27" ht="14.25" spans="3:4">
+    <row r="27" ht="14.25" spans="3:3">
       <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" s="2" customFormat="1" ht="14.25" spans="1:4">
+    </row>
+    <row r="28" s="2" customFormat="1" ht="14.25" spans="1:3">
       <c r="A28" s="3"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="29" ht="14.25" spans="3:3">
-      <c r="C29" s="7"/>
-    </row>
-    <row r="30" s="2" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A30" s="3"/>
-      <c r="C30" s="7"/>
-    </row>
-    <row r="31" s="2" customFormat="1" spans="1:1">
-      <c r="A31" s="3"/>
+    </row>
+    <row r="29" s="2" customFormat="1" spans="1:1">
+      <c r="A29" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K31">
+  <autoFilter ref="A1:K29">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/UI自动化用测试用例_错误用例.xlsx
+++ b/data/UI自动化用测试用例_错误用例.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
   <si>
     <t>用例编号</t>
   </si>
@@ -51,15 +51,6 @@
     <t>已登录，在个人中心页面</t>
   </si>
   <si>
-    <t xml:space="preserve">点击change password </t>
-  </si>
-  <si>
-    <t>页面成功跳转至修改密码页面</t>
-  </si>
-  <si>
-    <t>高</t>
-  </si>
-  <si>
     <t>输入正确密码，验证码修改密码成功</t>
   </si>
   <si>
@@ -69,155 +60,34 @@
     <t>存在密码修改页面</t>
   </si>
   <si>
-    <t xml:space="preserve">1、输入密码a1234567
-2、点击Send verification code to email
-3、输入验证码1234
-4、点击Confirm the changes
-</t>
-  </si>
-  <si>
-    <t>1、密码栏显示*********
-2、相应账户成功接收到验证码
-3、输入验证码1234
-4、页面成功跳转，显示修改成功</t>
-  </si>
-  <si>
     <t>不输入密码，验证码修改密码失败</t>
   </si>
   <si>
-    <t xml:space="preserve">1、输入密码“”
-2、点击Send verification code to email
-3、输入验证码1234
-4、点击Confirm the changes
-</t>
-  </si>
-  <si>
-    <t>1、密码栏显示为空
-2、相应账户成功接收到验证码
-3、输入验证码1234
-4、页面提示错误</t>
-  </si>
-  <si>
-    <t>中</t>
-  </si>
-  <si>
     <t>输入16位密码，修改密码成功</t>
   </si>
   <si>
-    <t xml:space="preserve">1、输入密码“AAaa567890123456”
-2、点击Send verification code to email
-3、输入验证码1234
-4、点击Confirm the changes
-</t>
-  </si>
-  <si>
-    <t>1、密码栏显示为****************
-2、相应账户成功接收到验证码
-3、输入验证码1234
-4、页面成功跳转，显示修改成功</t>
-  </si>
-  <si>
     <t>输入6位密码，修改密码成功</t>
   </si>
   <si>
-    <t xml:space="preserve">1、输入密码“123456”
-2、点击Send verification code to email
-3、输入验证码1234
-4、点击Confirm the changes
-</t>
-  </si>
-  <si>
-    <t>1、密码栏显示为******
-2、相应账户成功接收到验证码
-3、输入验证码1234
-4、页面成功跳转，显示修改成功</t>
-  </si>
-  <si>
     <t>输入17位密码，修改密码失败</t>
   </si>
   <si>
-    <t xml:space="preserve">1、输入密码“12345678901234567”
-2、点击Send verification code to email
-3、输入验证码1234
-4、点击Confirm the changes
-</t>
-  </si>
-  <si>
-    <t>1、密码栏显示为*****************
-2、相应账户成功接收到验证码
-3、输入验证码1234
-4、页面提示错误</t>
-  </si>
-  <si>
     <t>输入5位密码，修改密码失败</t>
   </si>
   <si>
-    <t xml:space="preserve">1、输入密码“12345”
-2、点击Send verification code to email
-3、输入验证码1234
-4、点击Confirm the changes
-</t>
-  </si>
-  <si>
-    <t>1、密码栏显示为*****
-2、相应账户成功接收到验证码
-3、输入验证码1234
-4、页面提示错误</t>
-  </si>
-  <si>
     <t>输入特殊字符密码修改失败</t>
   </si>
   <si>
-    <t xml:space="preserve">1、输入密码“#￥%……&amp;*（）”
-2、点击Send verification code to email
-3、输入验证码1234
-4、点击Confirm the changes
-</t>
-  </si>
-  <si>
-    <t>1、密码栏显示为********
-2、相应账户成功接收到验证码
-3、输入验证码1234
-4、页面提示错误</t>
-  </si>
-  <si>
     <t>验证码为996960长期有效不会变更</t>
   </si>
   <si>
     <t>输入错误验证码密码修改失败</t>
   </si>
   <si>
-    <t xml:space="preserve">1、输入密码“a123456”
-2、点击Send verification code to email
-3、输入验证码1dsf
-4、点击Confirm the changes
-</t>
-  </si>
-  <si>
-    <t>1、密码栏显示为*******
-2、相应账户成功接收到验证码
-3、输入验证码1dsf
-4、页面提示错误</t>
-  </si>
-  <si>
     <t>不输入验证码修改密码失败</t>
   </si>
   <si>
-    <t xml:space="preserve">1、输入密码“a123456”
-2、点击Send verification code to email
-3、点击Confirm the changes
-</t>
-  </si>
-  <si>
-    <t>1、密码栏显示为*******
-2、相应账户成功接收到验证码
-3、页面提示错误</t>
-  </si>
-  <si>
     <t>输入过去验证码修改密码失败</t>
-  </si>
-  <si>
-    <t>使用过期验证码修改失败</t>
   </si>
 </sst>
 </file>
@@ -1274,8 +1144,8 @@
   <sheetPr/>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1313,7 +1183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="59" customHeight="1" spans="1:7">
+    <row r="2" s="2" customFormat="1" ht="59" customHeight="1" spans="1:4">
       <c r="A2" s="8">
         <v>68</v>
       </c>
@@ -1326,152 +1196,89 @@
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="59" customHeight="1" spans="1:7">
+    </row>
+    <row r="3" s="2" customFormat="1" ht="59" customHeight="1" spans="1:4">
       <c r="A3" s="9">
         <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="59" customHeight="1" spans="1:7">
+    <row r="4" s="2" customFormat="1" ht="59" customHeight="1" spans="1:4">
       <c r="A4" s="8">
         <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="59" customHeight="1" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="59" customHeight="1" spans="1:4">
       <c r="A5" s="9">
         <v>71</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="59" customHeight="1" spans="1:7">
+    <row r="6" s="2" customFormat="1" ht="59" customHeight="1" spans="1:4">
       <c r="A6" s="8">
         <v>72</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="59" customHeight="1" spans="1:7">
+    <row r="7" s="2" customFormat="1" ht="59" customHeight="1" spans="1:4">
       <c r="A7" s="9">
         <v>73</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="59" customHeight="1" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="59" customHeight="1" spans="1:4">
       <c r="A8" s="8">
         <v>74</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="59" customHeight="1" spans="1:9">
@@ -1479,71 +1286,47 @@
         <v>75</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="59" customHeight="1" spans="1:7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="59" customHeight="1" spans="1:4">
       <c r="A10" s="8">
         <v>76</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="59" customHeight="1" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="59" customHeight="1" spans="1:4">
       <c r="A11" s="9">
         <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="59" customHeight="1" spans="1:9">
@@ -1551,23 +1334,17 @@
         <v>78</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
